--- a/src/test/resources/data/MakeMyTripTestData.xlsx
+++ b/src/test/resources/data/MakeMyTripTestData.xlsx
@@ -16,32 +16,97 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>Kolkata</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+  <si>
+    <t>From</t>
+  </si>
+  <si>
+    <t>To</t>
+  </si>
+  <si>
+    <t>DepartureDate</t>
+  </si>
+  <si>
+    <t>FareOption</t>
+  </si>
+  <si>
+    <t>SAVER</t>
+  </si>
+  <si>
+    <t>FLEXI PLUS</t>
+  </si>
+  <si>
+    <t>25 April 2024</t>
+  </si>
+  <si>
+    <t>Traveller1.Gender</t>
+  </si>
+  <si>
+    <t>Traveller1.Country</t>
+  </si>
+  <si>
+    <t>NoOfTraveller</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Traveller1.FirstMiddleName</t>
+  </si>
+  <si>
+    <t>Traveller1.LastName</t>
+  </si>
+  <si>
+    <t>Anwar</t>
+  </si>
+  <si>
+    <t>Khan</t>
+  </si>
+  <si>
+    <t>MALE</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>MobileNo</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>CountryCode</t>
+  </si>
+  <si>
+    <t>7358101855</t>
+  </si>
+  <si>
+    <t>abcd123@gmail.com</t>
+  </si>
+  <si>
+    <t>10 January 2025</t>
+  </si>
+  <si>
+    <t>Pune</t>
   </si>
   <si>
     <t>New Delhi</t>
-  </si>
-  <si>
-    <t>DepatureDate</t>
-  </si>
-  <si>
-    <t>From</t>
-  </si>
-  <si>
-    <t>To</t>
-  </si>
-  <si>
-    <t>10 , December 2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -69,9 +134,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -366,10 +434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -377,32 +445,109 @@
     <col min="1" max="1" width="15.140625" customWidth="1"/>
     <col min="2" max="2" width="18.5703125" customWidth="1"/>
     <col min="3" max="3" width="23.7109375" customWidth="1"/>
+    <col min="4" max="5" width="13.42578125" customWidth="1"/>
+    <col min="6" max="7" width="30.28515625" customWidth="1"/>
+    <col min="8" max="8" width="19.85546875" customWidth="1"/>
+    <col min="9" max="9" width="17.28515625" customWidth="1"/>
+    <col min="10" max="10" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:12" s="3" customFormat="1">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
+      <c r="E2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>5</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
